--- a/Week2/class6.xlsx
+++ b/Week2/class6.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SASCourse\Week2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -100,11 +105,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=".0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -201,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -210,6 +215,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,19 +292,19 @@
         </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cmpd="sng" algn="ctr" w="9525" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="25400" cap="flat">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="38100" cap="flat">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -329,25 +342,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1">
+    <row r="1" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,7 +378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="14" customHeight="1">
+    <row r="2" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -387,7 +398,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row r="3" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -407,7 +418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -427,7 +438,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -447,7 +458,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -467,7 +478,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -487,7 +498,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -507,7 +518,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -527,7 +538,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row r="10" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -547,7 +558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1">
+    <row r="11" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -567,7 +578,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1">
+    <row r="12" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -587,7 +598,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="13" ht="14" customHeight="1">
+    <row r="13" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -607,7 +618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" ht="14" customHeight="1">
+    <row r="14" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -627,7 +638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" ht="14" customHeight="1">
+    <row r="15" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -647,7 +658,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" ht="14" customHeight="1">
+    <row r="16" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -667,7 +678,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" ht="14" customHeight="1">
+    <row r="17" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -687,7 +698,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" ht="14" customHeight="1">
+    <row r="18" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -707,7 +718,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" ht="14" customHeight="1">
+    <row r="19" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -727,7 +738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" ht="14" customHeight="1">
+    <row r="20" spans="1:6" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -747,14 +758,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" ht="12" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="1" fitToWidth="1" fitToHeight="1" scale="100" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>